--- a/java-project/src/main/java/ExcelTemplate.xlsx
+++ b/java-project/src/main/java/ExcelTemplate.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codingame\CGFunge_deliver\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codingame\CGFunge-Interpreter\java-project\src\main\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CF24829-1467-441B-9181-D10014FA39EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF4B65A8-9443-4571-9B7E-C54878A4BB5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4215" yWindow="1875" windowWidth="21735" windowHeight="11040" xr2:uid="{20B7598F-297A-491D-8722-D0D39E89A8CF}"/>
   </bookViews>
@@ -293,7 +293,567 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="60">
+  <dxfs count="140">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1027,7 +1587,7 @@
   <dimension ref="A1:BP66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="AF9" sqref="AF9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1085,34 +1645,34 @@
       <c r="P1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="17" t="s">
+      <c r="Q1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="17" t="s">
+      <c r="R1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="S1" s="17" t="s">
+      <c r="S1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="T1" s="17" t="s">
+      <c r="T1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="U1" s="17" t="s">
+      <c r="U1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="V1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="W1" s="7" t="s">
+      <c r="V1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="W1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="X1" s="7" t="s">
+      <c r="X1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Y1" s="7" t="s">
+      <c r="Y1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="Z1" s="7" t="s">
+      <c r="Z1" s="11" t="s">
         <v>0</v>
       </c>
       <c r="AA1" s="11" t="s">
@@ -1127,7 +1687,7 @@
       <c r="AD1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="AE1" s="7" t="s">
+      <c r="AE1" s="11" t="s">
         <v>7</v>
       </c>
       <c r="AF1" s="7" t="s">
@@ -1207,7 +1767,7 @@
       <c r="P2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" s="18" t="s">
+      <c r="Q2" s="11" t="s">
         <v>7</v>
       </c>
       <c r="R2" s="11" t="s">
@@ -1666,43 +2226,43 @@
         <v>10</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="L6" s="11" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M6" s="11" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="N6" s="11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O6" s="11" t="s">
         <v>7</v>
       </c>
       <c r="P6" s="11" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="Q6" s="11" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="R6" s="11" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="S6" s="11" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="T6" s="11" t="s">
         <v>7</v>
@@ -1720,7 +2280,7 @@
         <v>7</v>
       </c>
       <c r="Y6" s="11" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="Z6" s="11" t="s">
         <v>7</v>
@@ -1782,13 +2342,13 @@
         <v>7</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F7" s="11">
         <v>5</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="H7" s="11" t="s">
         <v>7</v>
@@ -1904,7 +2464,7 @@
         <v>7</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>11</v>
@@ -2380,40 +2940,40 @@
     </row>
     <row r="12" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="L12" s="11" t="s">
         <v>10</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="I12" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="J12" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="K12" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="L12" s="11" t="s">
-        <v>0</v>
       </c>
       <c r="M12" s="11" t="s">
         <v>13</v>
@@ -2502,79 +3062,79 @@
     </row>
     <row r="13" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="L13" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J13" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K13" s="11" t="s">
+      <c r="M13" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="N13" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="O13" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="L13" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="M13" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="N13" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="O13" s="11" t="s">
-        <v>7</v>
-      </c>
       <c r="P13" s="11" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="Q13" s="11" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="R13" s="11" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S13" s="11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="T13" s="11" t="s">
         <v>7</v>
       </c>
       <c r="U13" s="11" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="V13" s="11" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="W13" s="11" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="X13" s="11" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Y13" s="11" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="Z13" s="11" t="s">
         <v>10</v>
@@ -5043,287 +5603,487 @@
       <c r="U66" s="3"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="V11:AA11 U12:AA12 U8:V8 U9:AK9 U10:Y10 AA10 A24:AN24 AC10:AK10 U5:AB5 AD5:AK5 AC12:AK13 AC11:AD11 AF11:AK11 A14:I23 AE20:AN23 AH6:AK8 AE18:AK19 AM3:AN19 K21:AC23 T14:Y14 T15:X19 A30:AN30 A25:I29 K25:AN29 AD14:AK17 AF15:AG21 X8 L13:Q13 K14:S17 A13 U6:AF6 Z13:AJ13 A3:R3 A1:Z2 Z4:AK4 A5:S12 A4:N4 AE1:AN2 AC7:AF7 AC8:AG8 R7:X7 K20:W20 R18:S19 Z16:AB20 W3:AK3">
-    <cfRule type="cellIs" dxfId="59" priority="60" operator="equal">
+  <conditionalFormatting sqref="V11:AA11 U12:AA12 U8:V8 U9:AK9 U10:Y10 AA10 A24:AN24 AC10:AK10 V5:AB5 AD5:AK5 AC12:AK13 AC11:AD11 AF11:AK11 A14:I23 AE20:AN23 AH6:AK8 AE18:AK19 AM3:AN3 K21:AC23 T14:Y14 T15:X19 A30:AN30 A25:I29 K25:AN29 AD14:AK17 AF15:AG21 X8 L13 K14:S17 AC6:AF6 A4:N4 AE1:AN2 AD8:AG8 K20:W20 R18:S19 Z16:AB20 W3:AK3 A7:S11 A5:F6 A1:AC2 AM5:AN19 A3:R3 Z13:AJ13 AD7:AF7 V1:X5 AD1:AE7 R7:X7 L12:S12">
+    <cfRule type="cellIs" dxfId="52" priority="123" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T17">
-    <cfRule type="cellIs" dxfId="58" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="122" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T21">
-    <cfRule type="cellIs" dxfId="57" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="121" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W8">
-    <cfRule type="cellIs" dxfId="56" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="120" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U11">
-    <cfRule type="cellIs" dxfId="55" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="119" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T18">
-    <cfRule type="cellIs" dxfId="54" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="118" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T22">
-    <cfRule type="cellIs" dxfId="53" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="117" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T18">
-    <cfRule type="cellIs" dxfId="52" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="116" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T22">
-    <cfRule type="cellIs" dxfId="51" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="115" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T19">
-    <cfRule type="cellIs" dxfId="50" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="114" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T23">
-    <cfRule type="cellIs" dxfId="49" priority="50" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T5:T12">
-    <cfRule type="cellIs" dxfId="48" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="113" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T7:T12">
+    <cfRule type="cellIs" dxfId="129" priority="112" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y15:Y21">
-    <cfRule type="cellIs" dxfId="47" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="111" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y16">
-    <cfRule type="cellIs" dxfId="46" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="110" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y17">
-    <cfRule type="cellIs" dxfId="45" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="109" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X20">
-    <cfRule type="cellIs" dxfId="44" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="108" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB10:AB13">
-    <cfRule type="cellIs" dxfId="43" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="107" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC5">
-    <cfRule type="cellIs" dxfId="42" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="106" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE11">
-    <cfRule type="cellIs" dxfId="41" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="105" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD18:AD23">
-    <cfRule type="cellIs" dxfId="40" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="104" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC16:AC20">
+    <cfRule type="cellIs" dxfId="120" priority="103" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG6:AG9">
+    <cfRule type="cellIs" dxfId="119" priority="102" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL3 AL5:AL19">
+    <cfRule type="cellIs" dxfId="118" priority="101" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J14:J17 J20:J23">
+    <cfRule type="cellIs" dxfId="117" priority="100" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J25:J29">
+    <cfRule type="cellIs" dxfId="116" priority="99" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z10">
+    <cfRule type="cellIs" dxfId="115" priority="98" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z13">
+    <cfRule type="cellIs" dxfId="114" priority="96" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA13">
+    <cfRule type="cellIs" dxfId="111" priority="93" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK13">
+    <cfRule type="cellIs" dxfId="110" priority="92" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA1:AD1">
+    <cfRule type="cellIs" dxfId="108" priority="88" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB1">
+    <cfRule type="cellIs" dxfId="107" priority="87" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC1">
+    <cfRule type="cellIs" dxfId="106" priority="86" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA2 AC2:AD2">
+    <cfRule type="cellIs" dxfId="105" priority="85" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB2">
+    <cfRule type="cellIs" dxfId="104" priority="84" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U7">
+    <cfRule type="cellIs" dxfId="98" priority="78" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K18:Q18">
+    <cfRule type="cellIs" dxfId="97" priority="77" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18">
+    <cfRule type="cellIs" dxfId="96" priority="76" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K19:Q19">
+    <cfRule type="cellIs" dxfId="95" priority="75" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J19">
+    <cfRule type="cellIs" dxfId="94" priority="74" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R1:U5 Z1:AC5 Z7:AC7 AC6 R7:U7 R6">
+    <cfRule type="cellIs" dxfId="83" priority="63" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S1:S5 AA1:AA5 AA7 S7">
+    <cfRule type="cellIs" dxfId="82" priority="62" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T1:T5 AB1:AB5 AB7 T7">
+    <cfRule type="cellIs" dxfId="81" priority="61" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R6">
+    <cfRule type="cellIs" dxfId="80" priority="60" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5:N6 I6:O6">
+    <cfRule type="cellIs" dxfId="78" priority="58" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O5:Q6 Q1:Q7 Y1:Y5 Y7 P6:R6">
+    <cfRule type="cellIs" dxfId="77" priority="57" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W4:AB4 AD4:AK4 AM4:AN4">
+    <cfRule type="cellIs" dxfId="76" priority="56" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC4">
+    <cfRule type="cellIs" dxfId="75" priority="55" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL4">
+    <cfRule type="cellIs" dxfId="74" priority="54" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R4">
+    <cfRule type="cellIs" dxfId="73" priority="53" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O4:Q4">
+    <cfRule type="cellIs" dxfId="70" priority="50" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S3:U4">
+    <cfRule type="cellIs" dxfId="69" priority="49" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S3:V3">
+    <cfRule type="cellIs" dxfId="68" priority="48" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T3">
+    <cfRule type="cellIs" dxfId="67" priority="47" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U3">
+    <cfRule type="cellIs" dxfId="66" priority="46" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S4 U4:V4">
+    <cfRule type="cellIs" dxfId="65" priority="45" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T4">
+    <cfRule type="cellIs" dxfId="64" priority="44" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA13">
+    <cfRule type="cellIs" dxfId="63" priority="43" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK13">
+    <cfRule type="cellIs" dxfId="62" priority="42" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ13">
+    <cfRule type="cellIs" dxfId="61" priority="41" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U7">
     <cfRule type="cellIs" dxfId="39" priority="40" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG6:AG9">
-    <cfRule type="cellIs" dxfId="38" priority="39" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL3:AL19">
-    <cfRule type="cellIs" dxfId="37" priority="38" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J14:J17 J20:J23">
+  <conditionalFormatting sqref="V7">
     <cfRule type="cellIs" dxfId="36" priority="37" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J25:J29">
+  <conditionalFormatting sqref="AC7:AC8 Y7:AA8">
     <cfRule type="cellIs" dxfId="35" priority="36" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z10">
+  <conditionalFormatting sqref="Y7:AB7">
     <cfRule type="cellIs" dxfId="34" priority="35" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R13:Z13">
+  <conditionalFormatting sqref="Z7">
+    <cfRule type="cellIs" dxfId="33" priority="34" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA7">
     <cfRule type="cellIs" dxfId="32" priority="33" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B13:I13 K13">
+  <conditionalFormatting sqref="Y8 AA8:AB8">
     <cfRule type="cellIs" dxfId="31" priority="32" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="Z8">
+    <cfRule type="cellIs" dxfId="30" priority="31" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA14:AC14">
+    <cfRule type="cellIs" dxfId="29" priority="30" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB14">
+    <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC14">
+    <cfRule type="cellIs" dxfId="27" priority="28" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z14">
+    <cfRule type="cellIs" dxfId="26" priority="27" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z14:AB15">
+    <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z14:AC14">
+    <cfRule type="cellIs" dxfId="24" priority="25" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA14">
+    <cfRule type="cellIs" dxfId="23" priority="24" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB14">
+    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z15 AB15:AC15">
+    <cfRule type="cellIs" dxfId="21" priority="22" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA15">
+    <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y13">
+    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V6:AB6">
+    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S6:U6 Z6:AB6">
+    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S6 AA6">
+    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T6 AB6">
+    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y6">
+    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S6">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S6">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W13">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W13">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M13:T13">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T13:W13">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X13">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X13">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X13">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X13">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A12:I12 K12">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J12">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13:I13 K13">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="J13">
-    <cfRule type="cellIs" dxfId="30" priority="31" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA13">
-    <cfRule type="cellIs" dxfId="29" priority="30" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK13">
-    <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W4:Y4 O4:R4">
-    <cfRule type="cellIs" dxfId="26" priority="27" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA1:AD1">
-    <cfRule type="cellIs" dxfId="24" priority="25" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB1">
-    <cfRule type="cellIs" dxfId="23" priority="24" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC1">
-    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC2:AD2 AA2">
-    <cfRule type="cellIs" dxfId="21" priority="22" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB2">
-    <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y7:AB7">
-    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z7">
-    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA7">
-    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA8:AB8 Y8">
-    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z8">
-    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U7">
-    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K18:Q18">
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J18">
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K19:Q19">
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J19">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z14:AC14">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA14">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB14">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB15:AC15 Z15">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA15">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S3:V3">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T3">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U3">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U4:V4 S4">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T4">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>""</formula>
     </cfRule>

--- a/java-project/src/main/java/ExcelTemplate.xlsx
+++ b/java-project/src/main/java/ExcelTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codingame\CGFunge-Interpreter\java-project\src\main\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF4B65A8-9443-4571-9B7E-C54878A4BB5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B3C67BE-2927-4670-A476-07893FFD85B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4215" yWindow="1875" windowWidth="21735" windowHeight="11040" xr2:uid="{20B7598F-297A-491D-8722-D0D39E89A8CF}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="25">
   <si>
     <t>"</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>0</t>
+  </si>
+  <si>
+    <t>Q</t>
   </si>
 </sst>
 </file>
@@ -293,308 +296,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="140">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="97">
     <dxf>
       <fill>
         <patternFill>
@@ -1587,7 +1289,7 @@
   <dimension ref="A1:BP66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AF9" sqref="AF9"/>
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1896,7 +1598,7 @@
         <v>0</v>
       </c>
       <c r="S3" s="11" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="T3" s="11" t="s">
         <v>8</v>
@@ -5604,302 +5306,302 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="V11:AA11 U12:AA12 U8:V8 U9:AK9 U10:Y10 AA10 A24:AN24 AC10:AK10 V5:AB5 AD5:AK5 AC12:AK13 AC11:AD11 AF11:AK11 A14:I23 AE20:AN23 AH6:AK8 AE18:AK19 AM3:AN3 K21:AC23 T14:Y14 T15:X19 A30:AN30 A25:I29 K25:AN29 AD14:AK17 AF15:AG21 X8 L13 K14:S17 AC6:AF6 A4:N4 AE1:AN2 AD8:AG8 K20:W20 R18:S19 Z16:AB20 W3:AK3 A7:S11 A5:F6 A1:AC2 AM5:AN19 A3:R3 Z13:AJ13 AD7:AF7 V1:X5 AD1:AE7 R7:X7 L12:S12">
-    <cfRule type="cellIs" dxfId="52" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="123" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T17">
-    <cfRule type="cellIs" dxfId="139" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="122" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T21">
-    <cfRule type="cellIs" dxfId="138" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="121" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W8">
-    <cfRule type="cellIs" dxfId="137" priority="120" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="120" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U11">
-    <cfRule type="cellIs" dxfId="136" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="119" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T18">
-    <cfRule type="cellIs" dxfId="135" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="118" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T22">
-    <cfRule type="cellIs" dxfId="134" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="117" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T18">
-    <cfRule type="cellIs" dxfId="133" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="116" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T22">
-    <cfRule type="cellIs" dxfId="132" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="115" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T19">
-    <cfRule type="cellIs" dxfId="131" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="114" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T23">
-    <cfRule type="cellIs" dxfId="130" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="113" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T12">
-    <cfRule type="cellIs" dxfId="129" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="112" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y15:Y21">
-    <cfRule type="cellIs" dxfId="128" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="111" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y16">
-    <cfRule type="cellIs" dxfId="127" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="110" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y17">
-    <cfRule type="cellIs" dxfId="126" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="109" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X20">
-    <cfRule type="cellIs" dxfId="125" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="108" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB10:AB13">
-    <cfRule type="cellIs" dxfId="124" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="107" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC5">
-    <cfRule type="cellIs" dxfId="123" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="106" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE11">
-    <cfRule type="cellIs" dxfId="122" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="105" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD18:AD23">
-    <cfRule type="cellIs" dxfId="121" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="104" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC16:AC20">
-    <cfRule type="cellIs" dxfId="120" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="103" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG6:AG9">
-    <cfRule type="cellIs" dxfId="119" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="102" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL3 AL5:AL19">
-    <cfRule type="cellIs" dxfId="118" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="101" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14:J17 J20:J23">
-    <cfRule type="cellIs" dxfId="117" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="100" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J25:J29">
-    <cfRule type="cellIs" dxfId="116" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="99" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z10">
-    <cfRule type="cellIs" dxfId="115" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="98" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z13">
-    <cfRule type="cellIs" dxfId="114" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="96" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA13">
-    <cfRule type="cellIs" dxfId="111" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="93" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK13">
-    <cfRule type="cellIs" dxfId="110" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="92" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA1:AD1">
-    <cfRule type="cellIs" dxfId="108" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="88" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB1">
-    <cfRule type="cellIs" dxfId="107" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="87" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC1">
-    <cfRule type="cellIs" dxfId="106" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="86" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA2 AC2:AD2">
-    <cfRule type="cellIs" dxfId="105" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="85" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB2">
-    <cfRule type="cellIs" dxfId="104" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="84" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U7">
-    <cfRule type="cellIs" dxfId="98" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="78" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K18:Q18">
-    <cfRule type="cellIs" dxfId="97" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="77" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J18">
-    <cfRule type="cellIs" dxfId="96" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="76" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K19:Q19">
-    <cfRule type="cellIs" dxfId="95" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="75" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J19">
-    <cfRule type="cellIs" dxfId="94" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="74" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:U5 Z1:AC5 Z7:AC7 AC6 R7:U7 R6">
-    <cfRule type="cellIs" dxfId="83" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="63" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1:S5 AA1:AA5 AA7 S7">
-    <cfRule type="cellIs" dxfId="82" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="62" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:T5 AB1:AB5 AB7 T7">
-    <cfRule type="cellIs" dxfId="81" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="61" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R6">
-    <cfRule type="cellIs" dxfId="80" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="60" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:N6 I6:O6">
-    <cfRule type="cellIs" dxfId="78" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="58" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O5:Q6 Q1:Q7 Y1:Y5 Y7 P6:R6">
-    <cfRule type="cellIs" dxfId="77" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="57" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W4:AB4 AD4:AK4 AM4:AN4">
-    <cfRule type="cellIs" dxfId="76" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="56" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC4">
-    <cfRule type="cellIs" dxfId="75" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="55" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL4">
-    <cfRule type="cellIs" dxfId="74" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="54" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R4">
-    <cfRule type="cellIs" dxfId="73" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="53" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4:Q4">
-    <cfRule type="cellIs" dxfId="70" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="50" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S3:U4">
-    <cfRule type="cellIs" dxfId="69" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="49" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S3:V3">
-    <cfRule type="cellIs" dxfId="68" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="48" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T3">
-    <cfRule type="cellIs" dxfId="67" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="47" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U3">
-    <cfRule type="cellIs" dxfId="66" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="46" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S4 U4:V4">
-    <cfRule type="cellIs" dxfId="65" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="45" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T4">
-    <cfRule type="cellIs" dxfId="64" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="44" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA13">
-    <cfRule type="cellIs" dxfId="63" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="43" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK13">
-    <cfRule type="cellIs" dxfId="62" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="42" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ13">
-    <cfRule type="cellIs" dxfId="61" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="41" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U7">
-    <cfRule type="cellIs" dxfId="39" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="40" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
